--- a/files/excel/GeneralCode.xlsx
+++ b/files/excel/GeneralCode.xlsx
@@ -1,39 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\automation\RPAAutomation\files\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>General Code</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>IsEditable</t>
+  </si>
+  <si>
+    <t>A55123</t>
+  </si>
+  <si>
+    <t>Example Item 1</t>
+  </si>
+  <si>
+    <t>DXF456</t>
+  </si>
+  <si>
+    <t>Example Item 2</t>
+  </si>
+  <si>
+    <t>GHG789</t>
+  </si>
+  <si>
+    <t>Example Item 3</t>
+  </si>
+  <si>
+    <t>JKS012</t>
+  </si>
+  <si>
+    <t>Example Item 4</t>
+  </si>
+  <si>
+    <t>Example Item 6</t>
+  </si>
+  <si>
+    <t>Example Item 7</t>
+  </si>
+  <si>
+    <t>Example Item 8</t>
+  </si>
+  <si>
+    <t>MXO723</t>
+  </si>
+  <si>
+    <t>MFO235</t>
+  </si>
+  <si>
+    <t>MHO841</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,90 +118,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D3" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D3" totalsRowShown="0">
   <autoFilter ref="A2:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No"/>
@@ -431,176 +438,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="14.7109375" bestFit="1" customWidth="1" style="3" min="1" max="3"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.7109375" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col min="1" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>General Code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IsEditable</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A55123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Example Item 1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DXF456</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Example Item 2</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GHG789</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Example Item 3</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>JKS012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Example Item 4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXO345</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Example Item 5</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MFO345</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Example Item 5</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MHO345</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Example Item 5</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>-1</v>
       </c>
     </row>
@@ -610,7 +576,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/excel/GeneralCode.xlsx
+++ b/files/excel/GeneralCode.xlsx
@@ -439,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/files/excel/GeneralCode.xlsx
+++ b/files/excel/GeneralCode.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/excel/GeneralCode.xlsx
+++ b/files/excel/GeneralCode.xlsx
@@ -66,9 +66,6 @@
     <t>Example Item 7</t>
   </si>
   <si>
-    <t>Example Item 8</t>
-  </si>
-  <si>
     <t>MXO723</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>MHO841</t>
+  </si>
+  <si>
+    <t>Example Item 5</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -547,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -561,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>-1</v>

--- a/files/excel/GeneralCode.xlsx
+++ b/files/excel/GeneralCode.xlsx
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>General Code</t>
-  </si>
-  <si>
-    <t>No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">General Code </t>
   </si>
   <si>
     <t>Code</t>
@@ -39,50 +36,71 @@
     <t>A55123</t>
   </si>
   <si>
+    <t>DESC551231</t>
+  </si>
+  <si>
+    <t>SUBA551231</t>
+  </si>
+  <si>
     <t>Example Item 1</t>
   </si>
   <si>
-    <t>DXF456</t>
+    <t>SUBA551232</t>
   </si>
   <si>
     <t>Example Item 2</t>
   </si>
   <si>
-    <t>GHG789</t>
+    <t>SUBA551233</t>
   </si>
   <si>
     <t>Example Item 3</t>
   </si>
   <si>
-    <t>JKS012</t>
+    <t>SUBA551234</t>
   </si>
   <si>
     <t>Example Item 4</t>
   </si>
   <si>
-    <t>Example Item 6</t>
-  </si>
-  <si>
-    <t>Example Item 7</t>
+    <t>SUBA551235</t>
+  </si>
+  <si>
+    <t>Example Item 5</t>
   </si>
   <si>
     <t>MXO723</t>
   </si>
   <si>
-    <t>MFO235</t>
-  </si>
-  <si>
-    <t>MHO841</t>
-  </si>
-  <si>
-    <t>Example Item 5</t>
+    <t>DESCMXO7231</t>
+  </si>
+  <si>
+    <t>SUBMXO7231</t>
+  </si>
+  <si>
+    <t>SUBMXO7232</t>
+  </si>
+  <si>
+    <t>SUBMXO7233</t>
+  </si>
+  <si>
+    <t>SUBMXO7234</t>
+  </si>
+  <si>
+    <t>General Sub Code</t>
+  </si>
+  <si>
+    <t>OrderKey</t>
+  </si>
+  <si>
+    <t>Sub Code Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,16 +114,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,22 +143,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -142,13 +307,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D3" totalsRowShown="0">
-  <autoFilter ref="A2:D3"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="No"/>
-    <tableColumn id="2" name="Code"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="IsEditable"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F11" totalsRowShown="0">
+  <autoFilter ref="A2:F11"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Code"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="IsEditable"/>
+    <tableColumn id="4" name="General Sub Code" dataDxfId="2"/>
+    <tableColumn id="6" name="Sub Code Description" dataDxfId="1"/>
+    <tableColumn id="5" name="OrderKey" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,26 +606,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -469,110 +643,149 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
